--- a/Lista de Materiales-Asocontador.xlsx
+++ b/Lista de Materiales-Asocontador.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="50">
   <si>
     <t>Item</t>
   </si>
@@ -46,12 +46,6 @@
   </si>
   <si>
     <t>https://www.didacticaselectronicas.com/index.php/sistemas-de-desarrollo/arduino/arduino-2/ABX00027-detail</t>
-  </si>
-  <si>
-    <t>Display LCD caracteres 4x20 Azul</t>
-  </si>
-  <si>
-    <t>https://www.didacticaselectronicas.com/index.php/optoelectronica/displays-lcd/caracteres/lcd-2004-detail</t>
   </si>
   <si>
     <t>Gran Total</t>
@@ -107,12 +101,6 @@
   </si>
   <si>
     <t>https://www.ardobot.co/modulo-lm2596-regulador-de-voltaje-dc-dc-buck-1-25v-35v.html</t>
-  </si>
-  <si>
-    <t>Conector DC jack para PCB Hembra</t>
-  </si>
-  <si>
-    <t>https://www.ardobot.co/conector-dc-jack-para-pcb-hembra.html</t>
   </si>
   <si>
     <t>Suiche metálico pulsador momentáneo de 12mm para exterior con iluminación verde 5-12V</t>
@@ -295,7 +283,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -323,9 +311,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -421,69 +406,14 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>446690</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>32847</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>1360186</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>945933</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2" descr="Display_LCD_cara_514b390b02d58.jpg"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="16764000" y="2798381"/>
-          <a:ext cx="913496" cy="913086"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
       <xdr:colOff>650328</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>124812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>1345068</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>827690</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -494,7 +424,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -532,13 +462,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>486104</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>164224</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>1372914</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>1050973</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -549,7 +479,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -587,13 +517,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>229914</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>197068</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>1385356</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>1241534</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -604,7 +534,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -642,13 +572,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>348156</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>985345</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>722587</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -659,7 +589,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -695,13 +625,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>183931</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>157656</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>1755446</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>1103587</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -712,7 +642,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -733,13 +663,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>105103</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>111672</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>1811721</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>1249417</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -750,7 +680,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -788,13 +718,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>223345</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>157656</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>1739870</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>1261241</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -805,7 +735,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -841,13 +771,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>335018</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>91965</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>1537454</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>1293986</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -858,7 +788,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -895,69 +825,14 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>578070</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>52553</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>1320363</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>794505</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Imagen 11" descr="Conector DC jack para PCB Hembra"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="16895380" y="14169260"/>
-          <a:ext cx="742293" cy="741952"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
       <xdr:colOff>459827</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>164225</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>1375996</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>1083880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -968,7 +843,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1006,13 +881,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>696312</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>55751</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>1307226</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>653604</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1023,7 +898,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1061,13 +936,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>558363</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>111672</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>1267811</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>820360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1078,7 +953,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1116,13 +991,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>387569</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>144517</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>1656169</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>1412328</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1133,7 +1008,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1171,13 +1046,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>354724</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>400707</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>1655380</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>1341909</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1188,7 +1063,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1224,13 +1099,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>256189</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>124812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>1700857</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>939364</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1241,7 +1116,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1279,13 +1154,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1321,13 +1196,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1363,13 +1238,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>474009</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>138724</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>1377463</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>1106832</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1380,7 +1255,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1401,13 +1276,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>604630</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>115956</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>1247662</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>1126435</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1418,7 +1293,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1439,13 +1314,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1481,13 +1356,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>397565</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>190501</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>1633135</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>1142999</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1498,7 +1373,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1781,10 +1656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="H8:O40"/>
+  <dimension ref="H8:O38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B14" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1792,8 +1667,8 @@
     <col min="8" max="8" width="9.140625" style="9"/>
     <col min="9" max="9" width="35.28515625" style="7" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="11.140625" style="9" customWidth="1"/>
-    <col min="12" max="12" width="21" style="16" customWidth="1"/>
-    <col min="13" max="13" width="30.7109375" style="16" customWidth="1"/>
+    <col min="12" max="12" width="21" style="15" customWidth="1"/>
+    <col min="13" max="13" width="30.7109375" style="15" customWidth="1"/>
     <col min="14" max="14" width="28.42578125" style="9" customWidth="1"/>
     <col min="15" max="15" width="26.140625" style="7" customWidth="1"/>
   </cols>
@@ -1809,10 +1684,10 @@
         <v>2</v>
       </c>
       <c r="K8" s="1"/>
-      <c r="L8" s="12" t="s">
+      <c r="L8" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="M8" s="12" t="s">
+      <c r="M8" s="11" t="s">
         <v>4</v>
       </c>
       <c r="N8" s="1" t="s">
@@ -1833,13 +1708,13 @@
         <v>1</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="L9" s="13">
+        <v>41</v>
+      </c>
+      <c r="L9" s="12">
         <v>220507</v>
       </c>
-      <c r="M9" s="13">
-        <f t="shared" ref="M9:M25" si="0">(L9*J9)</f>
+      <c r="M9" s="12">
+        <f t="shared" ref="M9:M23" si="0">(L9*J9)</f>
         <v>220507</v>
       </c>
       <c r="N9" s="3"/>
@@ -1847,84 +1722,84 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="8:15" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="8:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H10" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J10" s="3">
         <v>1</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="L10" s="13">
-        <v>18599.7</v>
-      </c>
-      <c r="M10" s="13">
+        <v>41</v>
+      </c>
+      <c r="L10" s="12">
+        <v>250000</v>
+      </c>
+      <c r="M10" s="12">
         <f t="shared" si="0"/>
-        <v>18599.7</v>
+        <v>250000</v>
       </c>
       <c r="N10" s="3"/>
       <c r="O10" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="8:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="8:15" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H11" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I11" s="8" t="s">
         <v>12</v>
       </c>
       <c r="J11" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="L11" s="13">
-        <v>250000</v>
-      </c>
-      <c r="M11" s="13">
+        <v>41</v>
+      </c>
+      <c r="L11" s="12">
+        <v>1190</v>
+      </c>
+      <c r="M11" s="12">
         <f t="shared" si="0"/>
-        <v>250000</v>
+        <v>11900</v>
       </c>
       <c r="N11" s="3"/>
       <c r="O11" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="8:15" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="8:15" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H12" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I12" s="8" t="s">
         <v>14</v>
       </c>
       <c r="J12" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="L12" s="13">
-        <v>1190</v>
-      </c>
-      <c r="M12" s="13">
+        <v>41</v>
+      </c>
+      <c r="L12" s="12">
+        <v>47838</v>
+      </c>
+      <c r="M12" s="12">
         <f t="shared" si="0"/>
-        <v>11900</v>
-      </c>
-      <c r="N12" s="3"/>
+        <v>47838</v>
+      </c>
+      <c r="N12" s="2"/>
       <c r="O12" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="8:15" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="8:15" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H13" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I13" s="8" t="s">
         <v>16</v>
@@ -1933,123 +1808,123 @@
         <v>1</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="L13" s="13">
-        <v>47838</v>
-      </c>
-      <c r="M13" s="13">
+        <v>41</v>
+      </c>
+      <c r="L13" s="12">
+        <v>35997.5</v>
+      </c>
+      <c r="M13" s="12">
         <f t="shared" si="0"/>
-        <v>47838</v>
+        <v>35997.5</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="8:15" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="8:15" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H14" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I14" s="8" t="s">
         <v>18</v>
       </c>
       <c r="J14" s="3">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="L14" s="13">
-        <v>35997.5</v>
-      </c>
-      <c r="M14" s="13">
+        <v>41</v>
+      </c>
+      <c r="L14" s="12">
+        <v>510</v>
+      </c>
+      <c r="M14" s="12">
         <f t="shared" si="0"/>
-        <v>35997.5</v>
-      </c>
-      <c r="N14" s="2"/>
+        <v>10200</v>
+      </c>
+      <c r="N14" s="3"/>
       <c r="O14" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="8:15" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="8:15" ht="96.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H15" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I15" s="8" t="s">
         <v>20</v>
       </c>
       <c r="J15" s="3">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="L15" s="13">
-        <v>510</v>
-      </c>
-      <c r="M15" s="13">
+        <v>41</v>
+      </c>
+      <c r="L15" s="12">
+        <v>60000</v>
+      </c>
+      <c r="M15" s="12">
         <f t="shared" si="0"/>
-        <v>10200</v>
-      </c>
-      <c r="N15" s="3"/>
+        <v>120000</v>
+      </c>
+      <c r="N15" s="10"/>
       <c r="O15" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="8:15" ht="96.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="8:15" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H16" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I16" s="8" t="s">
         <v>22</v>
       </c>
       <c r="J16" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="L16" s="13">
-        <v>60000</v>
-      </c>
-      <c r="M16" s="13">
+        <v>41</v>
+      </c>
+      <c r="L16" s="12">
+        <v>300000</v>
+      </c>
+      <c r="M16" s="12">
         <f t="shared" si="0"/>
-        <v>120000</v>
-      </c>
-      <c r="N16" s="10"/>
+        <v>300000</v>
+      </c>
+      <c r="N16" s="3"/>
       <c r="O16" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="8:15" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H17" s="3">
+        <v>10</v>
+      </c>
+      <c r="I17" s="8" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="8:15" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H17" s="3">
-        <v>9</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>24</v>
       </c>
       <c r="J17" s="3">
         <v>1</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="L17" s="13">
-        <v>300000</v>
-      </c>
-      <c r="M17" s="13">
+        <v>41</v>
+      </c>
+      <c r="L17" s="12">
+        <v>61771</v>
+      </c>
+      <c r="M17" s="12">
         <f t="shared" si="0"/>
-        <v>300000</v>
-      </c>
-      <c r="N17" s="3"/>
+        <v>61771</v>
+      </c>
+      <c r="N17" s="2"/>
       <c r="O17" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="8:15" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="8:15" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H18" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I18" s="8" t="s">
         <v>25</v>
@@ -2058,73 +1933,73 @@
         <v>1</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="L18" s="13">
-        <v>61771</v>
-      </c>
-      <c r="M18" s="13">
+        <v>41</v>
+      </c>
+      <c r="L18" s="12">
+        <v>6450</v>
+      </c>
+      <c r="M18" s="12">
         <f t="shared" si="0"/>
-        <v>61771</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>6450</v>
+      </c>
+      <c r="N18" s="3"/>
       <c r="O18" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="8:15" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="8:15" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H19" s="3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I19" s="8" t="s">
         <v>27</v>
       </c>
       <c r="J19" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="L19" s="13">
-        <v>6450</v>
-      </c>
-      <c r="M19" s="13">
+        <v>41</v>
+      </c>
+      <c r="L19" s="12">
+        <v>7919.45</v>
+      </c>
+      <c r="M19" s="12">
         <f t="shared" si="0"/>
-        <v>6450</v>
-      </c>
-      <c r="N19" s="3"/>
+        <v>15838.9</v>
+      </c>
+      <c r="N19" s="2"/>
       <c r="O19" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="8:15" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="8:15" ht="60" x14ac:dyDescent="0.25">
       <c r="H20" s="3">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I20" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="J20" s="11">
-        <v>2</v>
+      <c r="J20" s="3">
+        <v>5</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="L20" s="13">
-        <v>550</v>
-      </c>
-      <c r="M20" s="13">
+        <v>41</v>
+      </c>
+      <c r="L20" s="12">
+        <v>345</v>
+      </c>
+      <c r="M20" s="12">
         <f t="shared" si="0"/>
-        <v>1100</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>1725</v>
+      </c>
+      <c r="N20" s="3"/>
       <c r="O20" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="8:15" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="8:15" ht="75" x14ac:dyDescent="0.25">
       <c r="H21" s="3">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I21" s="8" t="s">
         <v>31</v>
@@ -2133,23 +2008,23 @@
         <v>2</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="L21" s="13">
-        <v>7919.45</v>
-      </c>
-      <c r="M21" s="13">
+        <v>41</v>
+      </c>
+      <c r="L21" s="12">
+        <v>1439.9</v>
+      </c>
+      <c r="M21" s="12">
         <f t="shared" si="0"/>
-        <v>15838.9</v>
-      </c>
-      <c r="N21" s="2"/>
-      <c r="O21" s="5" t="s">
+        <v>2879.8</v>
+      </c>
+      <c r="N21" s="3"/>
+      <c r="O21" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="8:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="22" spans="8:15" ht="124.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H22" s="3">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I22" s="8" t="s">
         <v>33</v>
@@ -2158,259 +2033,209 @@
         <v>5</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="L22" s="13">
-        <v>345</v>
-      </c>
-      <c r="M22" s="13">
+        <v>41</v>
+      </c>
+      <c r="L22" s="12">
+        <v>1425.62</v>
+      </c>
+      <c r="M22" s="12">
         <f t="shared" si="0"/>
-        <v>1725</v>
+        <v>7128.0999999999995</v>
       </c>
       <c r="N22" s="3"/>
       <c r="O22" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="8:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="23" spans="8:15" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H23" s="3">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J23" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="L23" s="13">
-        <v>1439.9</v>
-      </c>
-      <c r="M23" s="13">
+        <v>41</v>
+      </c>
+      <c r="L23" s="12">
+        <v>1190</v>
+      </c>
+      <c r="M23" s="12">
         <f t="shared" si="0"/>
-        <v>2879.8</v>
+        <v>11900</v>
       </c>
       <c r="N23" s="3"/>
-      <c r="O23" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="8:15" ht="124.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O23" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="8:15" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H24" s="3">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I24" s="8" t="s">
         <v>37</v>
       </c>
       <c r="J24" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="L24" s="13">
-        <v>1425.62</v>
-      </c>
-      <c r="M24" s="13">
-        <f t="shared" si="0"/>
-        <v>7128.0999999999995</v>
-      </c>
-      <c r="N24" s="3"/>
+        <v>41</v>
+      </c>
+      <c r="L24" s="12">
+        <v>1500</v>
+      </c>
+      <c r="M24" s="12">
+        <f t="shared" ref="M24:M30" si="1">(L24*J24)</f>
+        <v>15000</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="8:15" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="8:15" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H25" s="3">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I25" s="8" t="s">
         <v>40</v>
       </c>
       <c r="J25" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="L25" s="13">
-        <v>1190</v>
-      </c>
-      <c r="M25" s="13">
-        <f t="shared" si="0"/>
-        <v>11900</v>
-      </c>
-      <c r="N25" s="3"/>
-      <c r="O25" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="8:15" ht="150" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H26" s="3">
-        <v>18</v>
-      </c>
-      <c r="I26" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="J26" s="3">
-        <v>10</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="L26" s="13">
-        <v>1500</v>
-      </c>
-      <c r="M26" s="13">
-        <f t="shared" ref="M26:M32" si="1">(L26*J26)</f>
-        <v>15000</v>
-      </c>
-      <c r="N26" s="2"/>
-      <c r="O26" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="27" spans="8:15" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H27" s="3">
-        <v>19</v>
-      </c>
-      <c r="I27" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="J27" s="3">
-        <v>1</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="L27" s="13">
+      <c r="L25" s="12">
         <v>200000</v>
       </c>
-      <c r="M27" s="13">
+      <c r="M25" s="12">
         <f t="shared" si="1"/>
         <v>200000</v>
       </c>
-      <c r="N27" s="2"/>
-      <c r="O27" s="8"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="8"/>
+    </row>
+    <row r="26" spans="8:15" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H26" s="3">
+        <v>20</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J26" s="3">
+        <v>1</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L26" s="12">
+        <v>25500</v>
+      </c>
+      <c r="M26" s="12">
+        <f t="shared" si="1"/>
+        <v>25500</v>
+      </c>
+      <c r="N26" s="3"/>
+      <c r="O26" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="8:15" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H27" s="3">
+        <v>21</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J27" s="3">
+        <v>10</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L27" s="12">
+        <v>3300</v>
+      </c>
+      <c r="M27" s="12">
+        <f t="shared" si="1"/>
+        <v>33000</v>
+      </c>
+      <c r="N27" s="3"/>
+      <c r="O27" s="5" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="28" spans="8:15" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H28" s="3">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I28" s="8" t="s">
         <v>47</v>
       </c>
       <c r="J28" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="L28" s="13">
-        <v>25500</v>
-      </c>
-      <c r="M28" s="13">
+        <v>48</v>
+      </c>
+      <c r="L28" s="12">
+        <v>6700</v>
+      </c>
+      <c r="M28" s="12">
         <f t="shared" si="1"/>
-        <v>25500</v>
-      </c>
-      <c r="N28" s="3"/>
+        <v>13400</v>
+      </c>
+      <c r="N28"/>
       <c r="O28" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="8:15" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H29" s="3">
-        <v>21</v>
-      </c>
-      <c r="I29" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="J29" s="3">
-        <v>10</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="L29" s="13">
-        <v>3300</v>
-      </c>
-      <c r="M29" s="13">
-        <f t="shared" si="1"/>
-        <v>33000</v>
-      </c>
-      <c r="N29" s="3"/>
-      <c r="O29" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="8:15" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="I29" s="8"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29"/>
+      <c r="O29" s="5"/>
+    </row>
+    <row r="30" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H30" s="3">
-        <v>22</v>
-      </c>
-      <c r="I30" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="J30" s="3">
-        <v>2</v>
-      </c>
-      <c r="K30" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="L30" s="13">
-        <v>6700</v>
-      </c>
-      <c r="M30" s="13">
-        <f t="shared" si="1"/>
-        <v>13400</v>
-      </c>
-      <c r="N30"/>
-      <c r="O30" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="8:15" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H31" s="3">
-        <v>23</v>
-      </c>
-      <c r="I31" s="8"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
-      <c r="N31"/>
-      <c r="O31" s="5"/>
-    </row>
-    <row r="32" spans="8:15" x14ac:dyDescent="0.25">
-      <c r="H32" s="3">
         <v>24</v>
       </c>
-      <c r="I32" s="8"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="13">
+      <c r="I30" s="8"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N32" s="3"/>
-      <c r="O32" s="8"/>
-    </row>
-    <row r="33" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="L33" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="M33" s="15">
-        <f>SUM(M9:M32)</f>
-        <v>1410735</v>
-      </c>
-    </row>
-    <row r="37" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="N37"/>
-    </row>
-    <row r="40" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="O40"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="8"/>
+    </row>
+    <row r="31" spans="8:15" x14ac:dyDescent="0.25">
+      <c r="L31" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="M31" s="14">
+        <f>SUM(M9:M30)</f>
+        <v>1391035.3</v>
+      </c>
+    </row>
+    <row r="35" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N35"/>
+    </row>
+    <row r="38" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="O38"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2421,23 +2246,21 @@
     <hyperlink ref="O13" r:id="rId5"/>
     <hyperlink ref="O14" r:id="rId6"/>
     <hyperlink ref="O15" r:id="rId7"/>
-    <hyperlink ref="O16" r:id="rId8"/>
+    <hyperlink ref="O17" r:id="rId8"/>
     <hyperlink ref="O18" r:id="rId9"/>
     <hyperlink ref="O19" r:id="rId10"/>
     <hyperlink ref="O20" r:id="rId11"/>
     <hyperlink ref="O21" r:id="rId12"/>
     <hyperlink ref="O22" r:id="rId13"/>
-    <hyperlink ref="O23" r:id="rId14"/>
+    <hyperlink ref="O16" r:id="rId14"/>
     <hyperlink ref="O24" r:id="rId15"/>
-    <hyperlink ref="O17" r:id="rId16"/>
-    <hyperlink ref="O26" r:id="rId17"/>
-    <hyperlink ref="O25" r:id="rId18"/>
-    <hyperlink ref="O28" display="https://articulo.mercadolibre.com.co/MCO-1147431246-caja-para-contador-interno-monofasico-plastica-_JM?matt_tool=70147493&amp;matt_word=&amp;matt_source=google&amp;matt_campaign_id=14633851809&amp;matt_ad_group_id=140203048690&amp;matt_match_type=&amp;matt_network=g&amp;matt_device="/>
-    <hyperlink ref="O29" r:id="rId19"/>
-    <hyperlink ref="O30" r:id="rId20" location="position=1&amp;search_layout=stack&amp;type=item&amp;tracking_id=7d4e68dc-6614-4dd3-a40a-88e26f7be5d1"/>
+    <hyperlink ref="O23" r:id="rId16"/>
+    <hyperlink ref="O26" display="https://articulo.mercadolibre.com.co/MCO-1147431246-caja-para-contador-interno-monofasico-plastica-_JM?matt_tool=70147493&amp;matt_word=&amp;matt_source=google&amp;matt_campaign_id=14633851809&amp;matt_ad_group_id=140203048690&amp;matt_match_type=&amp;matt_network=g&amp;matt_device="/>
+    <hyperlink ref="O27" r:id="rId17"/>
+    <hyperlink ref="O28" r:id="rId18" location="position=1&amp;search_layout=stack&amp;type=item&amp;tracking_id=7d4e68dc-6614-4dd3-a40a-88e26f7be5d1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId21"/>
-  <drawing r:id="rId22"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId19"/>
+  <drawing r:id="rId20"/>
 </worksheet>
 </file>